--- a/metadata_fetcher_by_DOI_20241120.xlsx
+++ b/metadata_fetcher_by_DOI_20241120.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/492b7885d3558465/ドキュメント/GitHub/metadata_fetcher_by_DOI-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{739A9B7F-01CB-4376-9793-E5E2F28357E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{528CDED6-1F3A-48A3-AB17-537CD33E8738}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{739A9B7F-01CB-4376-9793-E5E2F28357E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44F2A497-3D54-4144-AEC2-DF04C319A627}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{0EF7D296-CA8B-4C18-B17F-2EF1863661D8}"/>
   </bookViews>
@@ -189,7 +189,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -200,9 +200,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -218,34 +215,34 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -324,18 +321,18 @@
     <tableColumn id="10" xr3:uid="{64BA406B-1CF3-479C-949E-FF681998B6F5}" uniqueName="10" name="Unpaywall.issn" queryTableFieldId="10" dataDxfId="13"/>
     <tableColumn id="4" xr3:uid="{9D011579-81F0-4585-BDB9-522A27E4D817}" uniqueName="4" name="Unpaywall.journal_name" queryTableFieldId="4" dataDxfId="12"/>
     <tableColumn id="5" xr3:uid="{E8192E2F-8485-44BF-B862-7584FEE62C8D}" uniqueName="5" name="Unpaywall.article title" queryTableFieldId="5" dataDxfId="11"/>
-    <tableColumn id="17" xr3:uid="{49AA8DC2-581E-40D2-955B-6E57E7A4F0C0}" uniqueName="17" name="Unpaywall.genre" queryTableFieldId="24" dataDxfId="1"/>
-    <tableColumn id="18" xr3:uid="{FAFC5A97-6EDB-4848-B6CD-685E4F69D74B}" uniqueName="18" name="Unpaywall.published_date" queryTableFieldId="25" dataDxfId="0"/>
+    <tableColumn id="17" xr3:uid="{49AA8DC2-581E-40D2-955B-6E57E7A4F0C0}" uniqueName="17" name="Unpaywall.genre" queryTableFieldId="24" dataDxfId="10"/>
+    <tableColumn id="18" xr3:uid="{FAFC5A97-6EDB-4848-B6CD-685E4F69D74B}" uniqueName="18" name="Unpaywall.published_date" queryTableFieldId="25" dataDxfId="9"/>
     <tableColumn id="6" xr3:uid="{6809A4B8-10F2-459D-9B7B-A39D12DE9756}" uniqueName="6" name="Unpaywall.is_oa" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{7579A04E-4F76-4D3D-9CA0-2E572FA87FDD}" uniqueName="7" name="Unpaywall.oa_status" queryTableFieldId="7" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{82AB0884-3626-4BF4-A601-C716E8088588}" uniqueName="8" name="Unpaywall.oa_location.license" queryTableFieldId="8" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{25415C04-293D-43EB-9F86-F042C0D8BEFB}" uniqueName="11" name="Unpaywall.oa_location.url" queryTableFieldId="12" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{1FBBB766-B1E8-476F-95D2-FAA667B93ACB}" uniqueName="12" name="Unpaywall.oa_location.url_for_pdf" queryTableFieldId="13" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{EFF2B7D2-4B74-4615-9E15-F7218C02BF70}" uniqueName="2" name="ポリシー" queryTableFieldId="16" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{1E63A3B3-DD85-48D3-AB79-50F2887009BF}" uniqueName="3" name="Title" queryTableFieldId="17" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{6F23F4EA-6875-4039-BD3D-159DD9D8895D}" uniqueName="9" name="出版社版の利用" queryTableFieldId="18" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{A3DAADB6-4C40-4EB7-9864-87AD3421DFAF}" uniqueName="13" name="公開場所" queryTableFieldId="19" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{00AC7548-660D-41B2-A75E-C16C8DA2022A}" uniqueName="14" name="公開条件" queryTableFieldId="20" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{7579A04E-4F76-4D3D-9CA0-2E572FA87FDD}" uniqueName="7" name="Unpaywall.oa_status" queryTableFieldId="7" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{82AB0884-3626-4BF4-A601-C716E8088588}" uniqueName="8" name="Unpaywall.oa_location.license" queryTableFieldId="8" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{25415C04-293D-43EB-9F86-F042C0D8BEFB}" uniqueName="11" name="Unpaywall.oa_location.url" queryTableFieldId="12" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{1FBBB766-B1E8-476F-95D2-FAA667B93ACB}" uniqueName="12" name="Unpaywall.oa_location.url_for_pdf" queryTableFieldId="13" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{EFF2B7D2-4B74-4615-9E15-F7218C02BF70}" uniqueName="2" name="ポリシー" queryTableFieldId="16" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{1E63A3B3-DD85-48D3-AB79-50F2887009BF}" uniqueName="3" name="Title" queryTableFieldId="17" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{6F23F4EA-6875-4039-BD3D-159DD9D8895D}" uniqueName="9" name="出版社版の利用" queryTableFieldId="18" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{A3DAADB6-4C40-4EB7-9864-87AD3421DFAF}" uniqueName="13" name="公開場所" queryTableFieldId="19" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{00AC7548-660D-41B2-A75E-C16C8DA2022A}" uniqueName="14" name="公開条件" queryTableFieldId="20" dataDxfId="0"/>
     <tableColumn id="15" xr3:uid="{4AE95DF8-A798-44EC-B0F5-BFD580536B9C}" uniqueName="15" name="備考" queryTableFieldId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -662,7 +659,7 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -751,24 +748,20 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A2" s="6"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
+      <c r="A2" s="5"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A3" s="6"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
+      <c r="A3" s="5"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
